--- a/2024_movies.xlsx
+++ b/2024_movies.xlsx
@@ -1,17 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\Estadística y Empresa\2024-2025 1 cuatrimestre\Análisis Web\Trabajo Final\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460F38E2-7D7C-45CC-858D-A1DF47405136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="2024_movies" sheetId="1" r:id="rId4"/>
+    <sheet name="2024_movies" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="64">
   <si>
     <t>movie_name</t>
   </si>
@@ -200,26 +222,31 @@
   </si>
   <si>
     <t>175-200M</t>
+  </si>
+  <si>
+    <t>Predicted_revenue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy/mm/dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy/m/d h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy/m/d\ h:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -228,45 +255,46 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -456,20 +484,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="17" max="17" width="29.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -521,22 +557,25 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="1">
-        <v>2024.0</v>
+        <v>2024</v>
       </c>
       <c r="C2" s="2">
-        <v>45602.0</v>
+        <v>45602</v>
       </c>
       <c r="D2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>123.0</v>
+        <v>123</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>18</v>
@@ -557,7 +596,7 @@
         <v>23</v>
       </c>
       <c r="L2" s="1">
-        <v>2.0E8</v>
+        <v>200000000</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>24</v>
@@ -571,25 +610,29 @@
       <c r="P2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="3">
-        <v>1.19135657698882E16</v>
+      <c r="Q2" s="4">
+        <v>1.1913565769888199</v>
+      </c>
+      <c r="R2">
+        <f>Q2*L2 + L2</f>
+        <v>438271315.39776397</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="1">
-        <v>2024.0</v>
+        <v>2024</v>
       </c>
       <c r="C3" s="2">
-        <v>45420.0</v>
+        <v>45420</v>
       </c>
       <c r="D3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>145.0</v>
+        <v>145</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>18</v>
@@ -610,7 +653,7 @@
         <v>23</v>
       </c>
       <c r="L3" s="1">
-        <v>1.6E8</v>
+        <v>160000000</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>31</v>
@@ -624,25 +667,29 @@
       <c r="P3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q3" s="3">
-        <v>2.16002703607501E15</v>
+      <c r="Q3" s="4">
+        <v>2.16002703607501</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R9" si="0">Q3*L3 + L3</f>
+        <v>505604325.77200162</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="1">
-        <v>2024.0</v>
+        <v>2024</v>
       </c>
       <c r="C4" s="2">
-        <v>45378.0</v>
+        <v>45378</v>
       </c>
       <c r="D4" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>115.0</v>
+        <v>115</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>18</v>
@@ -663,7 +710,7 @@
         <v>23</v>
       </c>
       <c r="L4" s="1">
-        <v>1.35E8</v>
+        <v>135000000</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>37</v>
@@ -677,25 +724,29 @@
       <c r="P4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="3">
-        <v>1.32900014870297E14</v>
+      <c r="Q4" s="4">
+        <v>1.3290001487029699</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="0"/>
+        <v>314415020.07490093</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B5" s="1">
-        <v>2024.0</v>
-      </c>
-      <c r="C5" s="4">
-        <v>45616.0</v>
+        <v>2024</v>
+      </c>
+      <c r="C5" s="3">
+        <v>45616</v>
       </c>
       <c r="D5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>160.0</v>
+        <v>160</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>40</v>
@@ -716,7 +767,7 @@
         <v>43</v>
       </c>
       <c r="L5" s="1">
-        <v>1.45E8</v>
+        <v>145000000</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>24</v>
@@ -730,25 +781,29 @@
       <c r="P5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Q5" s="3">
-        <v>3.13704680889409E15</v>
+      <c r="Q5" s="4">
+        <v>3.1370468088940902</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="0"/>
+        <v>599871787.28964305</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B6" s="1">
-        <v>2024.0</v>
-      </c>
-      <c r="C6" s="4">
-        <v>45596.0</v>
+        <v>2024</v>
+      </c>
+      <c r="C6" s="3">
+        <v>45596</v>
       </c>
       <c r="D6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>104.0</v>
+        <v>104</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>46</v>
@@ -769,7 +824,7 @@
         <v>23</v>
       </c>
       <c r="L6" s="1">
-        <v>5.0E7</v>
+        <v>50000000</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>49</v>
@@ -783,25 +838,29 @@
       <c r="P6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Q6" s="3">
-        <v>1.98924205701156E16</v>
+      <c r="Q6" s="4">
+        <v>1.9892420570115601</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="0"/>
+        <v>149462102.85057801</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B7" s="1">
-        <v>2024.0</v>
+        <v>2024</v>
       </c>
       <c r="C7" s="2">
-        <v>45574.0</v>
+        <v>45574</v>
       </c>
       <c r="D7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>46</v>
@@ -822,7 +881,7 @@
         <v>54</v>
       </c>
       <c r="L7" s="1">
-        <v>1.6E7</v>
+        <v>16000000</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>49</v>
@@ -836,25 +895,29 @@
       <c r="P7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Q7" s="3">
-        <v>2.03101785354222E16</v>
+      <c r="Q7" s="4">
+        <v>2.0310178535422199</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="0"/>
+        <v>48496285.656675518</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B8" s="1">
-        <v>2024.0</v>
-      </c>
-      <c r="C8" s="4">
-        <v>45588.0</v>
+        <v>2024</v>
+      </c>
+      <c r="C8" s="3">
+        <v>45588</v>
       </c>
       <c r="D8" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>109.0</v>
+        <v>109</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>18</v>
@@ -875,7 +938,7 @@
         <v>23</v>
       </c>
       <c r="L8" s="1">
-        <v>1.1E8</v>
+        <v>110000000</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>49</v>
@@ -889,25 +952,29 @@
       <c r="P8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Q8" s="3">
-        <v>1.20669298626484E16</v>
+      <c r="Q8" s="4">
+        <v>1.2066929862648399</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>242736228.4891324</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B9" s="1">
-        <v>2024.0</v>
+        <v>2024</v>
       </c>
       <c r="C9" s="2">
-        <v>45566.0</v>
+        <v>45566</v>
       </c>
       <c r="D9" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>138.0</v>
+        <v>138</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>61</v>
@@ -928,7 +995,7 @@
         <v>54</v>
       </c>
       <c r="L9" s="1">
-        <v>1.9E8</v>
+        <v>190000000</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>49</v>
@@ -942,11 +1009,15 @@
       <c r="P9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q9" s="3">
-        <v>1.85725487468071E16</v>
+      <c r="Q9" s="4">
+        <v>1.85725487468071</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>542878426.18933487</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/2024_movies.xlsx
+++ b/2024_movies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\Estadística y Empresa\2024-2025 1 cuatrimestre\Análisis Web\Trabajo Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460F38E2-7D7C-45CC-858D-A1DF47405136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F09C480-2F3C-4DAD-863F-A5294F89F96A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -270,12 +270,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,12 +498,13 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="17" max="17" width="29.33203125" customWidth="1"/>
+    <col min="18" max="18" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -611,11 +613,11 @@
         <v>27</v>
       </c>
       <c r="Q2" s="4">
-        <v>1.1913565769888199</v>
-      </c>
-      <c r="R2">
+        <v>1.19</v>
+      </c>
+      <c r="R2" s="5">
         <f>Q2*L2 + L2</f>
-        <v>438271315.39776397</v>
+        <v>438000000</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -668,11 +670,11 @@
         <v>34</v>
       </c>
       <c r="Q3" s="4">
-        <v>2.16002703607501</v>
-      </c>
-      <c r="R3">
+        <v>2.16</v>
+      </c>
+      <c r="R3" s="5">
         <f t="shared" ref="R3:R9" si="0">Q3*L3 + L3</f>
-        <v>505604325.77200162</v>
+        <v>505600000</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -725,11 +727,11 @@
         <v>27</v>
       </c>
       <c r="Q4" s="4">
-        <v>1.3290001487029699</v>
-      </c>
-      <c r="R4">
+        <v>1.33</v>
+      </c>
+      <c r="R4" s="5">
         <f t="shared" si="0"/>
-        <v>314415020.07490093</v>
+        <v>314550000</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -782,11 +784,11 @@
         <v>44</v>
       </c>
       <c r="Q5" s="4">
-        <v>3.1370468088940902</v>
-      </c>
-      <c r="R5">
+        <v>3.14</v>
+      </c>
+      <c r="R5" s="5">
         <f t="shared" si="0"/>
-        <v>599871787.28964305</v>
+        <v>600300000</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -839,11 +841,11 @@
         <v>27</v>
       </c>
       <c r="Q6" s="4">
-        <v>1.9892420570115601</v>
-      </c>
-      <c r="R6">
+        <v>2</v>
+      </c>
+      <c r="R6" s="5">
         <f t="shared" si="0"/>
-        <v>149462102.85057801</v>
+        <v>150000000</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -896,11 +898,11 @@
         <v>27</v>
       </c>
       <c r="Q7" s="4">
-        <v>2.0310178535422199</v>
-      </c>
-      <c r="R7">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="R7" s="5">
         <f t="shared" si="0"/>
-        <v>48496285.656675518</v>
+        <v>48480000</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -953,11 +955,11 @@
         <v>27</v>
       </c>
       <c r="Q8" s="4">
-        <v>1.2066929862648399</v>
-      </c>
-      <c r="R8">
+        <v>1.21</v>
+      </c>
+      <c r="R8" s="5">
         <f t="shared" si="0"/>
-        <v>242736228.4891324</v>
+        <v>243100000</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1010,11 +1012,11 @@
         <v>34</v>
       </c>
       <c r="Q9" s="4">
-        <v>1.85725487468071</v>
-      </c>
-      <c r="R9">
+        <v>1.86</v>
+      </c>
+      <c r="R9" s="5">
         <f t="shared" si="0"/>
-        <v>542878426.18933487</v>
+        <v>543400000</v>
       </c>
     </row>
   </sheetData>

--- a/2024_movies.xlsx
+++ b/2024_movies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\Estadística y Empresa\2024-2025 1 cuatrimestre\Análisis Web\Trabajo Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F09C480-2F3C-4DAD-863F-A5294F89F96A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF71954-CA00-4786-9CB7-F43978C54F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,59 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="59">
   <si>
     <t>movie_name</t>
   </si>
   <si>
-    <t>release_year</t>
-  </si>
-  <si>
-    <t>release_date</t>
-  </si>
-  <si>
-    <t>franchise</t>
-  </si>
-  <si>
-    <t>running_time</t>
-  </si>
-  <si>
-    <t>genre</t>
-  </si>
-  <si>
-    <t>creative_type</t>
-  </si>
-  <si>
-    <t>language</t>
-  </si>
-  <si>
-    <t>production_countries</t>
-  </si>
-  <si>
-    <t>distributor</t>
-  </si>
-  <si>
-    <t>mpaa</t>
-  </si>
-  <si>
-    <t>production_budget</t>
-  </si>
-  <si>
-    <t>month_name</t>
-  </si>
-  <si>
-    <t>distributor_type</t>
-  </si>
-  <si>
-    <t>budget_range</t>
-  </si>
-  <si>
-    <t>running_time_group</t>
-  </si>
-  <si>
-    <t>Predicted_ROI</t>
-  </si>
-  <si>
     <t>Red One</t>
   </si>
   <si>
@@ -95,12 +47,6 @@
     <t>Contemporary Fiction</t>
   </si>
   <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
     <t>Amazon</t>
   </si>
   <si>
@@ -224,17 +170,52 @@
     <t>175-200M</t>
   </si>
   <si>
-    <t>Predicted_revenue</t>
+    <t>Release Date</t>
+  </si>
+  <si>
+    <t>Franchise</t>
+  </si>
+  <si>
+    <t>Running Time</t>
+  </si>
+  <si>
+    <t>Genre</t>
+  </si>
+  <si>
+    <t>Creative Type</t>
+  </si>
+  <si>
+    <t>Distributor</t>
+  </si>
+  <si>
+    <t>Mpaa</t>
+  </si>
+  <si>
+    <t>Production Budget</t>
+  </si>
+  <si>
+    <t>Month Name</t>
+  </si>
+  <si>
+    <t>Distributor Type</t>
+  </si>
+  <si>
+    <t>Budget Range</t>
+  </si>
+  <si>
+    <t>Running Time Group</t>
+  </si>
+  <si>
+    <t>Predicted ROI</t>
+  </si>
+  <si>
+    <t>Predicted Revenue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy/m/d\ h:mm:ss"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -270,13 +251,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,526 +475,446 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="17" max="17" width="29.33203125" customWidth="1"/>
-    <col min="18" max="18" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="14" max="14" width="29.33203125" customWidth="1"/>
+    <col min="15" max="15" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="4">
+        <v>45602</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>123</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I2" s="1">
+        <v>200000000</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N2" s="2">
+        <v>1.19</v>
+      </c>
+      <c r="O2" s="3">
+        <f>N2*I2 + I2</f>
+        <v>438000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="B3" s="4">
+        <v>45420</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>145</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1">
+        <v>160000000</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>63</v>
+      <c r="N3" s="2">
+        <v>2.16</v>
+      </c>
+      <c r="O3" s="3">
+        <f t="shared" ref="O3:O9" si="0">N3*I3 + I3</f>
+        <v>505600000</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="1">
-        <v>2024</v>
-      </c>
-      <c r="C2" s="2">
-        <v>45602</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>123</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="B4" s="4">
+        <v>45378</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>115</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="1">
+        <v>135000000</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="K4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="1">
-        <v>200000000</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" s="4">
-        <v>1.19</v>
-      </c>
-      <c r="R2" s="5">
-        <f>Q2*L2 + L2</f>
-        <v>438000000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2024</v>
-      </c>
-      <c r="C3" s="2">
-        <v>45420</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>145</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="1">
-        <v>160000000</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>2.16</v>
-      </c>
-      <c r="R3" s="5">
-        <f t="shared" ref="R3:R9" si="0">Q3*L3 + L3</f>
-        <v>505600000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2024</v>
-      </c>
-      <c r="C4" s="2">
-        <v>45378</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>115</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" s="1">
-        <v>135000000</v>
-      </c>
       <c r="M4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q4" s="4">
+        <v>9</v>
+      </c>
+      <c r="N4" s="2">
         <v>1.33</v>
       </c>
-      <c r="R4" s="5">
+      <c r="O4" s="3">
         <f t="shared" si="0"/>
         <v>314550000</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2024</v>
-      </c>
-      <c r="C5" s="3">
+        <v>21</v>
+      </c>
+      <c r="B5" s="4">
         <v>45616</v>
       </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
       <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
         <v>160</v>
       </c>
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F5" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="1">
+        <v>145000000</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L5" s="1">
-        <v>145000000</v>
-      </c>
       <c r="M5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q5" s="4">
+        <v>26</v>
+      </c>
+      <c r="N5" s="2">
         <v>3.14</v>
       </c>
-      <c r="R5" s="5">
+      <c r="O5" s="3">
         <f t="shared" si="0"/>
         <v>600300000</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2024</v>
-      </c>
-      <c r="C6" s="3">
+        <v>27</v>
+      </c>
+      <c r="B6" s="4">
         <v>45596</v>
       </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
       <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
         <v>104</v>
       </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="F6" s="1" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
+      </c>
+      <c r="I6" s="1">
+        <v>50000000</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" s="1">
-        <v>50000000</v>
+        <v>14</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q6" s="4">
+        <v>9</v>
+      </c>
+      <c r="N6" s="2">
         <v>2</v>
       </c>
-      <c r="R6" s="5">
+      <c r="O6" s="3">
         <f t="shared" si="0"/>
         <v>150000000</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2024</v>
-      </c>
-      <c r="C7" s="2">
+        <v>33</v>
+      </c>
+      <c r="B7" s="4">
         <v>45574</v>
       </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
       <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
         <v>120</v>
       </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="F7" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
+      </c>
+      <c r="I7" s="1">
+        <v>16000000</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L7" s="1">
-        <v>16000000</v>
+        <v>37</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q7" s="4">
+        <v>9</v>
+      </c>
+      <c r="N7" s="2">
         <v>2.0299999999999998</v>
       </c>
-      <c r="R7" s="5">
+      <c r="O7" s="3">
         <f t="shared" si="0"/>
         <v>48480000</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2024</v>
-      </c>
-      <c r="C8" s="3">
+        <v>39</v>
+      </c>
+      <c r="B8" s="4">
         <v>45588</v>
       </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
       <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
         <v>109</v>
       </c>
+      <c r="E8" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="F8" s="1" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
+      </c>
+      <c r="I8" s="1">
+        <v>110000000</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L8" s="1">
-        <v>110000000</v>
+        <v>14</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q8" s="4">
+        <v>9</v>
+      </c>
+      <c r="N8" s="2">
         <v>1.21</v>
       </c>
-      <c r="R8" s="5">
+      <c r="O8" s="3">
         <f t="shared" si="0"/>
         <v>243100000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="1">
-        <v>2024</v>
-      </c>
-      <c r="C9" s="2">
+        <v>42</v>
+      </c>
+      <c r="B9" s="4">
         <v>45566</v>
       </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
       <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
         <v>138</v>
       </c>
+      <c r="E9" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="F9" s="1" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
+      </c>
+      <c r="I9" s="1">
+        <v>190000000</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L9" s="1">
-        <v>190000000</v>
+        <v>14</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q9" s="4">
+        <v>16</v>
+      </c>
+      <c r="N9" s="2">
         <v>1.86</v>
       </c>
-      <c r="R9" s="5">
+      <c r="O9" s="3">
         <f t="shared" si="0"/>
         <v>543400000</v>
       </c>

--- a/2024_movies.xlsx
+++ b/2024_movies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\Estadística y Empresa\2024-2025 1 cuatrimestre\Análisis Web\Trabajo Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF71954-CA00-4786-9CB7-F43978C54F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7F4979-C858-412B-806B-E0BEE24E8174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -478,13 +478,13 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="14" max="14" width="29.33203125" customWidth="1"/>
+    <col min="14" max="14" width="12.5546875" customWidth="1"/>
     <col min="15" max="15" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -496,37 +496,37 @@
         <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>57</v>
@@ -542,44 +542,44 @@
       <c r="B2" s="4">
         <v>45602</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1">
         <v>0</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>123</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="1">
+      <c r="L2" s="1">
         <v>200000000</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="N2" s="2">
         <v>1.19</v>
       </c>
       <c r="O2" s="3">
-        <f>N2*I2 + I2</f>
+        <f>N2*L2 + L2</f>
         <v>438000000</v>
       </c>
     </row>
@@ -590,44 +590,44 @@
       <c r="B3" s="4">
         <v>45420</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>145</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="J3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="1">
+      <c r="L3" s="1">
         <v>160000000</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="N3" s="2">
         <v>2.16</v>
       </c>
       <c r="O3" s="3">
-        <f t="shared" ref="O3:O9" si="0">N3*I3 + I3</f>
+        <f>N3*L3 + L3</f>
         <v>505600000</v>
       </c>
     </row>
@@ -638,44 +638,44 @@
       <c r="B4" s="4">
         <v>45378</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>115</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="J4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="1">
+      <c r="L4" s="1">
         <v>135000000</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="N4" s="2">
         <v>1.33</v>
       </c>
       <c r="O4" s="3">
-        <f t="shared" si="0"/>
+        <f>N4*L4 + L4</f>
         <v>314550000</v>
       </c>
     </row>
@@ -686,44 +686,44 @@
       <c r="B5" s="4">
         <v>45616</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>160</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="J5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="1">
+      <c r="L5" s="1">
         <v>145000000</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="N5" s="2">
         <v>3.14</v>
       </c>
       <c r="O5" s="3">
-        <f t="shared" si="0"/>
+        <f>N5*L5 + L5</f>
         <v>600300000</v>
       </c>
     </row>
@@ -734,44 +734,44 @@
       <c r="B6" s="4">
         <v>45596</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="1">
         <v>0</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>104</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="J6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="1">
+      <c r="L6" s="1">
         <v>50000000</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="N6" s="2">
         <v>2</v>
       </c>
       <c r="O6" s="3">
-        <f t="shared" si="0"/>
+        <f>N6*L6 + L6</f>
         <v>150000000</v>
       </c>
     </row>
@@ -782,44 +782,44 @@
       <c r="B7" s="4">
         <v>45574</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="1">
         <v>0</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>120</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="J7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="1">
+      <c r="L7" s="1">
         <v>16000000</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="N7" s="2">
         <v>2.0299999999999998</v>
       </c>
       <c r="O7" s="3">
-        <f t="shared" si="0"/>
+        <f>N7*L7 + L7</f>
         <v>48480000</v>
       </c>
     </row>
@@ -830,44 +830,44 @@
       <c r="B8" s="4">
         <v>45588</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>109</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="J8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="1">
+      <c r="L8" s="1">
         <v>110000000</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="N8" s="2">
         <v>1.21</v>
       </c>
       <c r="O8" s="3">
-        <f t="shared" si="0"/>
+        <f>N8*L8 + L8</f>
         <v>243100000</v>
       </c>
     </row>
@@ -878,44 +878,44 @@
       <c r="B9" s="4">
         <v>45566</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>138</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="J9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="1">
+      <c r="L9" s="1">
         <v>190000000</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="N9" s="2">
         <v>1.86</v>
       </c>
       <c r="O9" s="3">
-        <f t="shared" si="0"/>
+        <f>N9*L9 + L9</f>
         <v>543400000</v>
       </c>
     </row>
